--- a/dataset/ComparacaoMilho.xlsx
+++ b/dataset/ComparacaoMilho.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29019"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f10dd0afd1b4e5c2/Documentos/College/Predictive AI/Datasets/"/>
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="ComparacaoMilho" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,6 +41,21 @@
     <t>DATA:</t>
   </si>
   <si>
+    <t>VALORES REAIS:</t>
+  </si>
+  <si>
+    <t>VALORES PREVISTOS:</t>
+  </si>
+  <si>
+    <t>ERRO:</t>
+  </si>
+  <si>
+    <t>ERRO²:</t>
+  </si>
+  <si>
+    <t>MSE:</t>
+  </si>
+  <si>
     <t>13/05/2025</t>
   </si>
   <si>
@@ -67,21 +84,6 @@
   </si>
   <si>
     <t>26/05/2025</t>
-  </si>
-  <si>
-    <t>VALORES REAIS:</t>
-  </si>
-  <si>
-    <t>VALORES PREVISTOS:</t>
-  </si>
-  <si>
-    <t>ERRO:</t>
-  </si>
-  <si>
-    <t>ERRO²:</t>
-  </si>
-  <si>
-    <t>MSE:</t>
   </si>
 </sst>
 </file>
@@ -91,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,10 +174,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,7 +499,7 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -509,29 +507,29 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="33.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>73.569999999999993</v>
@@ -552,9 +550,9 @@
         <v>0.2815400000000009</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>73.12</v>
@@ -571,9 +569,9 @@
         <v>0.79210000000000103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
         <v>73.069999999999993</v>
@@ -590,9 +588,9 @@
         <v>0.10890000000000825</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>72.930000000000007</v>
@@ -609,9 +607,9 @@
         <v>3.6000000000002727E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
         <v>72.680000000000007</v>
@@ -628,9 +626,9 @@
         <v>6.7600000000002658E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>72.59</v>
@@ -647,9 +645,9 @@
         <v>0.31360000000000254</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <v>72.03</v>
@@ -666,9 +664,9 @@
         <v>0.10889999999999887</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <v>71.22</v>
@@ -685,9 +683,9 @@
         <v>3.6099999999999133E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3">
         <v>71.13</v>
@@ -704,9 +702,9 @@
         <v>9.0000000000006817E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>71.239999999999995</v>
